--- a/data/trans_orig/P34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>78526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62293</v>
+        <v>62207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98271</v>
+        <v>98606</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07708919968385262</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06115338191336848</v>
+        <v>0.06106843940080642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09647308428087305</v>
+        <v>0.09680135569213542</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -765,19 +765,19 @@
         <v>56109</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41318</v>
+        <v>42925</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72029</v>
+        <v>71107</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04303898631100671</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03169356273422697</v>
+        <v>0.03292600079687493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05525090538191225</v>
+        <v>0.05454358311169581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -786,19 +786,19 @@
         <v>134635</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>112230</v>
+        <v>112255</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>157730</v>
+        <v>158792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05797446698276951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04832667873511262</v>
+        <v>0.04833735705607302</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06791915914537583</v>
+        <v>0.0683766279822899</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>124103</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103355</v>
+        <v>104023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144821</v>
+        <v>146022</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1218323128860404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1014640545014173</v>
+        <v>0.1021191515431739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1421707703123886</v>
+        <v>0.1433496987272186</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -836,19 +836,19 @@
         <v>60855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46969</v>
+        <v>45904</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77015</v>
+        <v>77877</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04667962901206108</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03602774839692192</v>
+        <v>0.03521133890259633</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05907531764898093</v>
+        <v>0.0597364790089142</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>176</v>
@@ -857,19 +857,19 @@
         <v>184959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159982</v>
+        <v>159432</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>211311</v>
+        <v>214532</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07964392926887046</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06888877968021395</v>
+        <v>0.06865212720784922</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09099143442474547</v>
+        <v>0.09237840914823103</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>439108</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>404194</v>
+        <v>408836</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>469594</v>
+        <v>470538</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4310719342845666</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3967977493571616</v>
+        <v>0.4013545713915425</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4610002695285318</v>
+        <v>0.461927368347619</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>770</v>
@@ -907,19 +907,19 @@
         <v>783345</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>749632</v>
+        <v>748247</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>817180</v>
+        <v>819519</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.600873563951285</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5750138824795789</v>
+        <v>0.5739509629391181</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.626826704968258</v>
+        <v>0.6286212517043616</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1216</v>
@@ -928,19 +928,19 @@
         <v>1222453</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1169526</v>
+        <v>1173422</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1268663</v>
+        <v>1270610</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5263932977000451</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5036029773894012</v>
+        <v>0.5052806631342666</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5462918535782014</v>
+        <v>0.5471298667685897</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>376904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>348568</v>
+        <v>346694</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>407177</v>
+        <v>410350</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3700065531455403</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3421895163677394</v>
+        <v>0.3403493021774244</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3997256470474997</v>
+        <v>0.4028402438311044</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>393</v>
@@ -978,19 +978,19 @@
         <v>403368</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>370323</v>
+        <v>367433</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>436379</v>
+        <v>434491</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3094078207256472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2840603435754986</v>
+        <v>0.2818434661043226</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3347295619557747</v>
+        <v>0.3332808668069817</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>782</v>
@@ -999,19 +999,19 @@
         <v>780272</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>737121</v>
+        <v>738445</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>828386</v>
+        <v>826095</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.335988306048315</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.317407641384383</v>
+        <v>0.3179775791781851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3567064856392124</v>
+        <v>0.3557198762406502</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>151050</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>129368</v>
+        <v>128010</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>175236</v>
+        <v>174046</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09004445500729812</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07711912259421894</v>
+        <v>0.07630970666847262</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1044624061782669</v>
+        <v>0.1037530272231425</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>66</v>
@@ -1124,19 +1124,19 @@
         <v>66807</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>52101</v>
+        <v>51440</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>83785</v>
+        <v>85396</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04241339411651465</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03307690541154998</v>
+        <v>0.03265704702223716</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05319163706952284</v>
+        <v>0.05421441564465711</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>213</v>
@@ -1145,19 +1145,19 @@
         <v>217858</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>191236</v>
+        <v>189650</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>245946</v>
+        <v>246839</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0669783695361072</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0587937733368679</v>
+        <v>0.05830624927810472</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07561400461277672</v>
+        <v>0.07588852306909012</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>343110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>309770</v>
+        <v>313524</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>378797</v>
+        <v>376788</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2045358111089877</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1846606841835711</v>
+        <v>0.186898576459984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2258094079234634</v>
+        <v>0.224611777573455</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>140</v>
@@ -1195,19 +1195,19 @@
         <v>148001</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>125766</v>
+        <v>126064</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172242</v>
+        <v>172717</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09396002866490973</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07984396674298951</v>
+        <v>0.08003308661702041</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1093493169567072</v>
+        <v>0.1096513865871296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>468</v>
@@ -1216,19 +1216,19 @@
         <v>491112</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>451250</v>
+        <v>448467</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>532700</v>
+        <v>532561</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.150987760714997</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1387327291337182</v>
+        <v>0.1378769881343079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1637738664323334</v>
+        <v>0.1637310787371176</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>584450</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>543983</v>
+        <v>544677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627047</v>
+        <v>624883</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3484040002830666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3242808718336651</v>
+        <v>0.3246941428814619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3737970865764326</v>
+        <v>0.3725071961399464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>917</v>
@@ -1266,19 +1266,19 @@
         <v>942798</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>905925</v>
+        <v>904826</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>983037</v>
+        <v>980140</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5985451076615569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.575135999826432</v>
+        <v>0.5744380402534135</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6240912477415991</v>
+        <v>0.6222516624968559</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1478</v>
@@ -1287,19 +1287,19 @@
         <v>1527249</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1470636</v>
+        <v>1469393</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1585040</v>
+        <v>1584673</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4695387399832912</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4521335685830227</v>
+        <v>0.4517513464087118</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4873060120405766</v>
+        <v>0.4871931470397839</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>598896</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>562941</v>
+        <v>560717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>639779</v>
+        <v>637392</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3570157336006475</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3355820802308985</v>
+        <v>0.3342560012065254</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3813865381330005</v>
+        <v>0.3799637219772238</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>419</v>
@@ -1337,19 +1337,19 @@
         <v>417543</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>383131</v>
+        <v>379499</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>450178</v>
+        <v>452928</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2650814695570187</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2432348426771865</v>
+        <v>0.2409290578125733</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2857998368319495</v>
+        <v>0.2875460393331729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1017</v>
@@ -1358,19 +1358,19 @@
         <v>1016440</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>961437</v>
+        <v>958346</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1069601</v>
+        <v>1065915</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3124951297656047</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2955849535989728</v>
+        <v>0.2946346263007412</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3288391249688924</v>
+        <v>0.327705690363753</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>12684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6525</v>
+        <v>6523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23370</v>
+        <v>23113</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02318763016877241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01192773237389703</v>
+        <v>0.01192420779530617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04272304698902821</v>
+        <v>0.04225277991884799</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>12444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6336</v>
+        <v>6214</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22351</v>
+        <v>22131</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02623260482107698</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01335764384739429</v>
+        <v>0.0131005488294438</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04711924529946671</v>
+        <v>0.04665504723130976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1504,19 +1504,19 @@
         <v>25128</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15720</v>
+        <v>16567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38756</v>
+        <v>38136</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02460180325127696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01539116062693797</v>
+        <v>0.01621992907203912</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03794491459165606</v>
+        <v>0.03733746895654893</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>52502</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39127</v>
+        <v>40888</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>67925</v>
+        <v>68013</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09597834470323945</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07152800278865067</v>
+        <v>0.07474648379481114</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1241721736793907</v>
+        <v>0.1243338665302176</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -1554,19 +1554,19 @@
         <v>20917</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13096</v>
+        <v>13612</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>31423</v>
+        <v>31986</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04409453258799617</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02760723283880469</v>
+        <v>0.02869565415628548</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06624263614962632</v>
+        <v>0.06742962418215617</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>71</v>
@@ -1575,19 +1575,19 @@
         <v>73419</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>57681</v>
+        <v>58073</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>91265</v>
+        <v>91915</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07188202243810383</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05647361305560883</v>
+        <v>0.05685739085378436</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08935470004654468</v>
+        <v>0.08999080705077288</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>200341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>179068</v>
+        <v>178252</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>224241</v>
+        <v>225001</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3662387947631848</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3273491659033209</v>
+        <v>0.3258580228330296</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4099304970087249</v>
+        <v>0.4113195737540759</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>202</v>
@@ -1625,19 +1625,19 @@
         <v>213768</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>192966</v>
+        <v>191493</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>236688</v>
+        <v>234495</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4506462578581233</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4067923945767657</v>
+        <v>0.4036885370299184</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4989628661644144</v>
+        <v>0.4943415187458392</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>389</v>
@@ -1646,19 +1646,19 @@
         <v>414109</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>382790</v>
+        <v>383083</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>448314</v>
+        <v>446370</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4054400282384835</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3747768023340402</v>
+        <v>0.3750637589245958</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4389288724031958</v>
+        <v>0.4370258466100868</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>281495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>257228</v>
+        <v>259835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>305148</v>
+        <v>305446</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5145952303648033</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4702324585500716</v>
+        <v>0.4749984276253749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5578334266788721</v>
+        <v>0.5583788466401669</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>217</v>
@@ -1696,19 +1696,19 @@
         <v>227231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204716</v>
+        <v>206321</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>249891</v>
+        <v>249006</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4790266047328036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4315640151761516</v>
+        <v>0.4349461625409168</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5267963842484434</v>
+        <v>0.5249307484894271</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>491</v>
@@ -1717,19 +1717,19 @@
         <v>508726</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>475679</v>
+        <v>476501</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>543201</v>
+        <v>540954</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4980761460721357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4657208568330936</v>
+        <v>0.4665253258535713</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5318296599824026</v>
+        <v>0.5296290335757672</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>242261</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>216247</v>
+        <v>211378</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>276015</v>
+        <v>273872</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07469868004717445</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06667759119386284</v>
+        <v>0.06517647825757679</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08510656277663578</v>
+        <v>0.08444561061113411</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>134</v>
@@ -1842,19 +1842,19 @@
         <v>135360</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115163</v>
+        <v>113331</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160559</v>
+        <v>158841</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04036759924225853</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03434440052920426</v>
+        <v>0.0337980370527349</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04788265222110635</v>
+        <v>0.04737011692927428</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>365</v>
@@ -1863,19 +1863,19 @@
         <v>377621</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>339864</v>
+        <v>340587</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>416365</v>
+        <v>414239</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05724684967922659</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05152295733622467</v>
+        <v>0.0516325606789712</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06312041071997633</v>
+        <v>0.06279821506188517</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>519716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>479481</v>
+        <v>474717</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>563611</v>
+        <v>560724</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1602493460940966</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1478433749886873</v>
+        <v>0.1463742702312716</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.173783810381117</v>
+        <v>0.1728937186200261</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>220</v>
@@ -1913,19 +1913,19 @@
         <v>229773</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>204026</v>
+        <v>200597</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>264307</v>
+        <v>261399</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06852376919024775</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06084536035584499</v>
+        <v>0.05982270529913327</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07882259424144733</v>
+        <v>0.07795533479655634</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>715</v>
@@ -1934,19 +1934,19 @@
         <v>749489</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>699081</v>
+        <v>702896</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>808215</v>
+        <v>803332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1136216498201445</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1059799282056734</v>
+        <v>0.106558199888089</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1225244930296637</v>
+        <v>0.1217841930140164</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>1223899</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1160226</v>
+        <v>1167556</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1282474</v>
+        <v>1277005</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3773771754215084</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3577443576063711</v>
+        <v>0.3600043421832969</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3954383427142529</v>
+        <v>0.3937519804410784</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1889</v>
@@ -1984,19 +1984,19 @@
         <v>1939911</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1879031</v>
+        <v>1882045</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1995346</v>
+        <v>1995224</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5785278536376663</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5603717587957001</v>
+        <v>0.5612705355488743</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5950598061556307</v>
+        <v>0.595023243567266</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3083</v>
@@ -2005,19 +2005,19 @@
         <v>3163810</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3081608</v>
+        <v>3085580</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3239414</v>
+        <v>3246492</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4796299280969612</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.467168141684137</v>
+        <v>0.4677703207963396</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4910913028492517</v>
+        <v>0.4921643567488111</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>1257296</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3876747984372205</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1029</v>
@@ -2055,19 +2055,19 @@
         <v>1048141</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3125807779298274</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2290</v>
@@ -2076,19 +2076,19 @@
         <v>2305437</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3495015724036676</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>25833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17034</v>
+        <v>16840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38783</v>
+        <v>39446</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02665536595085303</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0175755865809163</v>
+        <v>0.01737540125757969</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0400172803411134</v>
+        <v>0.04070090674320287</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2440,19 +2440,19 @@
         <v>6209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2202</v>
+        <v>2988</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13478</v>
+        <v>14808</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004674438169896176</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00165753571715864</v>
+        <v>0.002249660950091025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01014667977994814</v>
+        <v>0.01114767845617755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -2461,19 +2461,19 @@
         <v>32043</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22567</v>
+        <v>21661</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45026</v>
+        <v>43697</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01394666436514107</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009822438002752579</v>
+        <v>0.009428008050671802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01959756991831598</v>
+        <v>0.01901934724968448</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>109526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90739</v>
+        <v>91621</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>133461</v>
+        <v>131321</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1130114670174998</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09362669749606906</v>
+        <v>0.09453622217634171</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1377080211139514</v>
+        <v>0.1354990943967225</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -2511,19 +2511,19 @@
         <v>104769</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85871</v>
+        <v>86445</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>125600</v>
+        <v>126814</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0788711613330811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06464472426240146</v>
+        <v>0.06507712467713854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0945531094631815</v>
+        <v>0.09546713352524987</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>198</v>
@@ -2532,19 +2532,19 @@
         <v>214295</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>184901</v>
+        <v>186716</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>244574</v>
+        <v>245172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09327258423184445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08047856450072685</v>
+        <v>0.08126862577192046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1064515928461098</v>
+        <v>0.1067117869701402</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>497898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>466037</v>
+        <v>468106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>531372</v>
+        <v>532391</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5137405962775478</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4808660078638515</v>
+        <v>0.4830004117118291</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5482796403055377</v>
+        <v>0.5493312197361786</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>696</v>
@@ -2582,19 +2582,19 @@
         <v>746043</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>709557</v>
+        <v>706157</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>783612</v>
+        <v>779704</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5616302465266835</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5341632292974321</v>
+        <v>0.5316036383323141</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5899126066995732</v>
+        <v>0.5869706247530255</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1166</v>
@@ -2603,19 +2603,19 @@
         <v>1243942</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1194805</v>
+        <v>1198047</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1294779</v>
+        <v>1293648</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5414289304609509</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5200419753706305</v>
+        <v>0.5214533530889899</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5635559538315879</v>
+        <v>0.5630636630729415</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>335904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>305230</v>
+        <v>305801</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>366199</v>
+        <v>366659</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3465925707540994</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3149418102848581</v>
+        <v>0.3155315695257654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3778514705070836</v>
+        <v>0.3783260327117988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>439</v>
@@ -2653,19 +2653,19 @@
         <v>471332</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>431326</v>
+        <v>435545</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>506829</v>
+        <v>509038</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3548241539703392</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3247071566203367</v>
+        <v>0.3278836297976448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3815470078188254</v>
+        <v>0.3832101567993904</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>746</v>
@@ -2674,19 +2674,19 @@
         <v>807236</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>760713</v>
+        <v>761225</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>858275</v>
+        <v>855231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3513518209420636</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.331102170128285</v>
+        <v>0.331325007162175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3735663175725222</v>
+        <v>0.3722415839208911</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>103858</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>84682</v>
+        <v>85218</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>123981</v>
+        <v>124947</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05326868064835195</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04343356234985656</v>
+        <v>0.04370801143816781</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0635899403572508</v>
+        <v>0.06408511070584999</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -2799,19 +2799,19 @@
         <v>11931</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6611</v>
+        <v>6917</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20023</v>
+        <v>20855</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006827637586499538</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003783270929230426</v>
+        <v>0.003958551349977887</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01145869695208945</v>
+        <v>0.01193516688720134</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>112</v>
@@ -2820,19 +2820,19 @@
         <v>115789</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>94650</v>
+        <v>95279</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>138371</v>
+        <v>137135</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03131877995343008</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02560125978818473</v>
+        <v>0.02577138506910001</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03742681548867225</v>
+        <v>0.03709257702800126</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>306255</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>273190</v>
+        <v>271444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>340387</v>
+        <v>336992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1570779163169441</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1401190024885846</v>
+        <v>0.1392232781821134</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1745843987943245</v>
+        <v>0.1728430850978043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -2870,19 +2870,19 @@
         <v>192432</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166205</v>
+        <v>166251</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>219958</v>
+        <v>219237</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1101247375322542</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09511573812329815</v>
+        <v>0.09514230470087763</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1258777078422952</v>
+        <v>0.1254649246528376</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>471</v>
@@ -2891,19 +2891,19 @@
         <v>498687</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>457932</v>
+        <v>453452</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>541661</v>
+        <v>540559</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1348859597266877</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1238625365826146</v>
+        <v>0.1226507433747893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1465097686131979</v>
+        <v>0.1462118216065704</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>988043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>941989</v>
+        <v>944342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1030372</v>
+        <v>1034597</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5067663543037416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4831453192930398</v>
+        <v>0.4843522482550966</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5284770013689383</v>
+        <v>0.5306441098183271</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1052</v>
@@ -2941,19 +2941,19 @@
         <v>1135039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1094902</v>
+        <v>1092594</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1173190</v>
+        <v>1178701</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6495598455190995</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6265902955333175</v>
+        <v>0.6252692515790595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6713928673189821</v>
+        <v>0.6745470157423545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1982</v>
@@ -2962,19 +2962,19 @@
         <v>2123082</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2057570</v>
+        <v>2062093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2187059</v>
+        <v>2183576</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5742562887542639</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5565364501764477</v>
+        <v>0.5577600270106364</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5915610841641575</v>
+        <v>0.5906188412630752</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>551545</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>511100</v>
+        <v>515516</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>599417</v>
+        <v>594017</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2828870487309624</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.262142961199699</v>
+        <v>0.2644077455169052</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3074402203075791</v>
+        <v>0.3046705859062278</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>383</v>
@@ -3012,19 +3012,19 @@
         <v>407996</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>372805</v>
+        <v>370699</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>442907</v>
+        <v>448238</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2334877793621467</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2133486123748722</v>
+        <v>0.2121436192017427</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2534668275878325</v>
+        <v>0.256517531043903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>902</v>
@@ -3033,19 +3033,19 @@
         <v>959541</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>902461</v>
+        <v>905738</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1015604</v>
+        <v>1010685</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2595389715656182</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2440997126857012</v>
+        <v>0.2449862298318205</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.274702898558751</v>
+        <v>0.2733724760542328</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>7975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3076</v>
+        <v>3132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16492</v>
+        <v>16066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01671242963016983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00644697112287274</v>
+        <v>0.006563526930319366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03456091255648453</v>
+        <v>0.03366927298952404</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3158,19 +3158,19 @@
         <v>5654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1810</v>
+        <v>1655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15174</v>
+        <v>14274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01248760073753177</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003996912122741561</v>
+        <v>0.003654897275635006</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03351644588198916</v>
+        <v>0.03152844055460371</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -3179,19 +3179,19 @@
         <v>13628</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7449</v>
+        <v>7543</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24684</v>
+        <v>24949</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01465554860649653</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008010205573099297</v>
+        <v>0.008111719787347593</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02654468415684119</v>
+        <v>0.0268299834822248</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>45352</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31461</v>
+        <v>32667</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>60465</v>
+        <v>60472</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0950417935557296</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06593133271436662</v>
+        <v>0.0684586810249285</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1267143015662708</v>
+        <v>0.1267284633347766</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>28</v>
@@ -3229,19 +3229,19 @@
         <v>32227</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21165</v>
+        <v>21135</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>44952</v>
+        <v>45076</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.071183568250205</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04675030754855486</v>
+        <v>0.04668444718731381</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09929171637775917</v>
+        <v>0.09956367532336136</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>68</v>
@@ -3250,19 +3250,19 @@
         <v>77579</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>60800</v>
+        <v>60001</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>98103</v>
+        <v>96986</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08342628624489662</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06538266203760602</v>
+        <v>0.06452376265273049</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1054978055796518</v>
+        <v>0.104296400932866</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>236313</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>212537</v>
+        <v>213884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>258825</v>
+        <v>260482</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4952316258518046</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.445405034407555</v>
+        <v>0.4482284506355224</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5424090848637805</v>
+        <v>0.5458819635601452</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>237</v>
@@ -3300,19 +3300,19 @@
         <v>259778</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>236348</v>
+        <v>240265</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>282821</v>
+        <v>281573</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.573802314695698</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5220488294907346</v>
+        <v>0.5307005332211813</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6247009081532613</v>
+        <v>0.6219436842659885</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>451</v>
@@ -3321,19 +3321,19 @@
         <v>496091</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>462601</v>
+        <v>463087</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>529023</v>
+        <v>528017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5334841948923064</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4974692495350755</v>
+        <v>0.4979918460085305</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5688977876507106</v>
+        <v>0.5678162328543551</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>187537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164981</v>
+        <v>164877</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210994</v>
+        <v>209265</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.393014150962296</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3457431432543066</v>
+        <v>0.3455262356022651</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4421712177087859</v>
+        <v>0.438547291015772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -3371,19 +3371,19 @@
         <v>155072</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133778</v>
+        <v>135821</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176777</v>
+        <v>175232</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3425265163165653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2954921893495696</v>
+        <v>0.3000043597423163</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3904678381052613</v>
+        <v>0.3870543933963774</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>311</v>
@@ -3392,19 +3392,19 @@
         <v>342610</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>309386</v>
+        <v>312021</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>374026</v>
+        <v>375491</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3684339702563005</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3327064179635191</v>
+        <v>0.3355393604653062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4022183595516791</v>
+        <v>0.4037936851865964</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>137666</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>116009</v>
+        <v>114805</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>161859</v>
+        <v>163955</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04053725588646379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0341600238110495</v>
+        <v>0.03380555628656143</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04766118321385393</v>
+        <v>0.04827831175895723</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -3517,19 +3517,19 @@
         <v>23793</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15581</v>
+        <v>15152</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36683</v>
+        <v>35395</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006743247332511007</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004415781769147069</v>
+        <v>0.004294312366570037</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01039631349371147</v>
+        <v>0.01003119251957726</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>154</v>
@@ -3538,19 +3538,19 @@
         <v>161460</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>136989</v>
+        <v>137834</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188874</v>
+        <v>192950</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02331707423030938</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01978319463017261</v>
+        <v>0.01990521158689879</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02727614979154024</v>
+        <v>0.02786472614119116</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>461133</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>420905</v>
+        <v>424764</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>502991</v>
+        <v>504997</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1357855405451309</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1239397656057074</v>
+        <v>0.1250762809353557</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1481110836648185</v>
+        <v>0.1487016349930377</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>303</v>
@@ -3588,19 +3588,19 @@
         <v>329427</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>291822</v>
+        <v>294185</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>362945</v>
+        <v>366753</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09336237853119665</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08270479573369449</v>
+        <v>0.08337427197670218</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1028616475383987</v>
+        <v>0.1039406351563525</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>737</v>
@@ -3609,19 +3609,19 @@
         <v>790561</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>735589</v>
+        <v>731410</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>848609</v>
+        <v>841918</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1141682602174034</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1062295724548905</v>
+        <v>0.1056259914488301</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1225512880610125</v>
+        <v>0.1215849658694312</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>1722254</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1659959</v>
+        <v>1665464</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1783372</v>
+        <v>1783588</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5071359201264476</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4887923770123317</v>
+        <v>0.4904135387818548</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5251325313864523</v>
+        <v>0.5251961905723945</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1985</v>
@@ -3659,19 +3659,19 @@
         <v>2140860</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2082455</v>
+        <v>2078247</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2204073</v>
+        <v>2198290</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6067370678469273</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5901845674890045</v>
+        <v>0.5889919474547554</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6246519573478073</v>
+        <v>0.6230130007498038</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3599</v>
@@ -3680,19 +3680,19 @@
         <v>3863115</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3778406</v>
+        <v>3777030</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3956008</v>
+        <v>3949394</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5578889953104661</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5456558155317375</v>
+        <v>0.5454570819783662</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5713041763075044</v>
+        <v>0.5703489287177064</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>1074987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1016986</v>
+        <v>1019450</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1131885</v>
+        <v>1132994</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3165412834419578</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2994621987950414</v>
+        <v>0.3001878486943845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3332953525222606</v>
+        <v>0.3336218695273565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>960</v>
@@ -3730,19 +3730,19 @@
         <v>1034400</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>974268</v>
+        <v>982059</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1084934</v>
+        <v>1094686</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2931573062893651</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2761153911964797</v>
+        <v>0.2783235232719518</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3074791738321643</v>
+        <v>0.3102427910254602</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1959</v>
@@ -3751,19 +3751,19 @@
         <v>2109387</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2031420</v>
+        <v>2040292</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2187698</v>
+        <v>2189680</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3046256702418211</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2933660875814365</v>
+        <v>0.2946474023530102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3159348754037993</v>
+        <v>0.316221176682612</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>11893</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5993</v>
+        <v>5792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20124</v>
+        <v>20419</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01584247775333766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00798291498218544</v>
+        <v>0.007715704583447519</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02680699242791087</v>
+        <v>0.02719972380984003</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4115,19 +4115,19 @@
         <v>3830</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9650</v>
+        <v>9798</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003871520107513192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001021197661345647</v>
+        <v>0.001024491054231831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009754915014982022</v>
+        <v>0.009904551178453075</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -4136,19 +4136,19 @@
         <v>15723</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9004</v>
+        <v>9247</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24917</v>
+        <v>26208</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009036400287300607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005175140670532537</v>
+        <v>0.005314637109225987</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01432042453682241</v>
+        <v>0.01506280969663362</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>75197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61075</v>
+        <v>59695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92870</v>
+        <v>93192</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1001694587863077</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08135700478919242</v>
+        <v>0.07951912114375222</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1237118330326183</v>
+        <v>0.1241402586703076</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -4186,19 +4186,19 @@
         <v>44163</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32518</v>
+        <v>33302</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57946</v>
+        <v>58440</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04464326860298595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03287115797849678</v>
+        <v>0.03366381580322444</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05857630020699207</v>
+        <v>0.05907551316919044</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>114</v>
@@ -4207,19 +4207,19 @@
         <v>119360</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99532</v>
+        <v>99348</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>141837</v>
+        <v>142646</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06860009207708601</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05720418998405084</v>
+        <v>0.05709831472702679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08151800288763833</v>
+        <v>0.08198308622581976</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>323957</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>298645</v>
+        <v>299445</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>352130</v>
+        <v>351147</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4315398406339517</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3978216400304204</v>
+        <v>0.3988876861258362</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4690689728704366</v>
+        <v>0.4677592337129198</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>486</v>
@@ -4257,19 +4257,19 @@
         <v>521533</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>492381</v>
+        <v>486004</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>552632</v>
+        <v>551314</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.527204430430998</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4977349032047812</v>
+        <v>0.4912889616008688</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5586409747991159</v>
+        <v>0.5573088903724807</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>809</v>
@@ -4278,19 +4278,19 @@
         <v>845490</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>802681</v>
+        <v>803983</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>890179</v>
+        <v>887317</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4859298592255271</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4613260384312303</v>
+        <v>0.4620744453546429</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5116141193932713</v>
+        <v>0.5099689950648255</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>339653</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>310372</v>
+        <v>315497</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>365934</v>
+        <v>367503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.452448222826403</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4134432103413226</v>
+        <v>0.4202707123632127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4874568958531191</v>
+        <v>0.4895465170143357</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>354</v>
@@ -4328,19 +4328,19 @@
         <v>419717</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>390547</v>
+        <v>389146</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>450929</v>
+        <v>454837</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4242807808585028</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3947940825016106</v>
+        <v>0.3933772723643009</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4558328165837218</v>
+        <v>0.4597825267044951</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>707</v>
@@ -4349,19 +4349,19 @@
         <v>759370</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>720037</v>
+        <v>717068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>807556</v>
+        <v>800994</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4364336484100863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4138281950960176</v>
+        <v>0.4121215508808398</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4641275839850553</v>
+        <v>0.4603565582182127</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>71409</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>55251</v>
+        <v>55227</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>91547</v>
+        <v>90879</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03465129311589302</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02681057806648959</v>
+        <v>0.02679896847021972</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04442327531157691</v>
+        <v>0.04409936991463662</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -4474,19 +4474,19 @@
         <v>12250</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6601</v>
+        <v>6493</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20726</v>
+        <v>20428</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006180036662416011</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003330105378682625</v>
+        <v>0.003275645061006282</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01045637165207867</v>
+        <v>0.01030619738138658</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>79</v>
@@ -4495,19 +4495,19 @@
         <v>83658</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>66542</v>
+        <v>67257</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>104981</v>
+        <v>105913</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02069256796206698</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01645879195702035</v>
+        <v>0.01663583278730543</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02596653231154366</v>
+        <v>0.02619726740706751</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>271396</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>238705</v>
+        <v>241642</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>299566</v>
+        <v>302010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1316955225953869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1158323244244266</v>
+        <v>0.1172575000012111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1453653253652032</v>
+        <v>0.1465511554737955</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>169</v>
@@ -4545,19 +4545,19 @@
         <v>175056</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>151200</v>
+        <v>152480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>201135</v>
+        <v>200389</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08831651738203183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07628111151628135</v>
+        <v>0.07692686230182406</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1014738198699592</v>
+        <v>0.1010971531256891</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>420</v>
@@ -4566,19 +4566,19 @@
         <v>446451</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>405873</v>
+        <v>407031</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>487578</v>
+        <v>492128</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1104279114448554</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1003909121550115</v>
+        <v>0.1006773634493103</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1206003562635835</v>
+        <v>0.1217258015339127</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>1077601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1033647</v>
+        <v>1029200</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1125232</v>
+        <v>1120966</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5229092425077043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5015803544706867</v>
+        <v>0.4994223894187638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5460220503078415</v>
+        <v>0.5439522197862748</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1256</v>
@@ -4616,19 +4616,19 @@
         <v>1299355</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1257797</v>
+        <v>1256126</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1341875</v>
+        <v>1340792</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6555316127164375</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6345651715502187</v>
+        <v>0.6337221548558215</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6769827918619509</v>
+        <v>0.6764366842966452</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2274</v>
@@ -4637,19 +4637,19 @@
         <v>2376957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2317215</v>
+        <v>2311827</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2449033</v>
+        <v>2446703</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5879305814155132</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5731537539464838</v>
+        <v>0.5718209589449695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6057583374311268</v>
+        <v>0.6051820134625399</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>640375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>597632</v>
+        <v>597638</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>683028</v>
+        <v>685561</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3107439417810158</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.290002807770752</v>
+        <v>0.2900056676103804</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3314415589277153</v>
+        <v>0.3326702808991652</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>465</v>
@@ -4687,19 +4687,19 @@
         <v>495479</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>456917</v>
+        <v>455283</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>536044</v>
+        <v>534078</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2499718332391148</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2305170360608838</v>
+        <v>0.2296925342253595</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2704368545788031</v>
+        <v>0.2694451598199734</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1067</v>
@@ -4708,19 +4708,19 @@
         <v>1135854</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1070167</v>
+        <v>1075775</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1189395</v>
+        <v>1200732</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2809489391775644</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2647015299498001</v>
+        <v>0.2660885625079106</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2941920197445922</v>
+        <v>0.2969961129543273</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>7227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2749</v>
+        <v>2869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14917</v>
+        <v>16820</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01336000934097049</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005081680442263833</v>
+        <v>0.005303019940057105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0275762599958033</v>
+        <v>0.03109397736582806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6473</v>
+        <v>5748</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001914800973357535</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01187952283716906</v>
+        <v>0.01054904892255841</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -4854,19 +4854,19 @@
         <v>8270</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3179</v>
+        <v>3387</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16457</v>
+        <v>17583</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007616739709049024</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002928081107605007</v>
+        <v>0.003118994266017353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01515694117805907</v>
+        <v>0.0161937975255417</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>41032</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29730</v>
+        <v>29574</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56181</v>
+        <v>54868</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07585533141147746</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0549613060178383</v>
+        <v>0.05467209922945929</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1038605446643165</v>
+        <v>0.1014337443206841</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -4904,19 +4904,19 @@
         <v>44035</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>33204</v>
+        <v>32804</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>59438</v>
+        <v>57432</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08082150236038836</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06094254609190806</v>
+        <v>0.06020717083194041</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1090911338458567</v>
+        <v>0.1054088872225466</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>79</v>
@@ -4925,19 +4925,19 @@
         <v>85068</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>68172</v>
+        <v>67924</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>104591</v>
+        <v>103147</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07834738379547082</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06278680712363449</v>
+        <v>0.06255799829256173</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09632848274440571</v>
+        <v>0.09499877088212477</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>241706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>218232</v>
+        <v>216708</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>265662</v>
+        <v>264600</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4468364834493925</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4034401268195121</v>
+        <v>0.4006239058404431</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4911241749323899</v>
+        <v>0.4891605870123356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -4975,19 +4975,19 @@
         <v>313268</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>290942</v>
+        <v>287648</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>337288</v>
+        <v>334712</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5749640247932375</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5339874089438854</v>
+        <v>0.5279418535814698</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6190496475629639</v>
+        <v>0.614322283429249</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>523</v>
@@ -4996,19 +4996,19 @@
         <v>554974</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>522795</v>
+        <v>519440</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>590892</v>
+        <v>587150</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5111316009847967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4814949117458238</v>
+        <v>0.4784051736504127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5442124916962077</v>
+        <v>0.5407656004588323</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>250962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>226762</v>
+        <v>228744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>276013</v>
+        <v>277052</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4639481757981596</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4192095258300789</v>
+        <v>0.4228748303660894</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.510258909349863</v>
+        <v>0.512179544420363</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -5046,19 +5046,19 @@
         <v>186501</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>164533</v>
+        <v>165397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>210383</v>
+        <v>211159</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3422996718730166</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3019791103176523</v>
+        <v>0.3035648922997587</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3861309282474221</v>
+        <v>0.3875562000962258</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>409</v>
@@ -5067,19 +5067,19 @@
         <v>437463</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>405626</v>
+        <v>406887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>471136</v>
+        <v>474768</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4029042755106835</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3735821925892896</v>
+        <v>0.3747430324545373</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4339163594152012</v>
+        <v>0.4372615118558836</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>90528</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74910</v>
+        <v>72213</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112748</v>
+        <v>112979</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02700401088552824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02234525703393911</v>
+        <v>0.02154077126835916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03363185176865879</v>
+        <v>0.03370099140787226</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -5192,19 +5192,19 @@
         <v>17123</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10412</v>
+        <v>9740</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27057</v>
+        <v>26745</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004869659543534697</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002961081342976794</v>
+        <v>0.002770060030202843</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.007694743854199666</v>
+        <v>0.007606251634321114</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -5213,19 +5213,19 @@
         <v>107651</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88730</v>
+        <v>89829</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>130739</v>
+        <v>131768</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01567287251023196</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01291811506932501</v>
+        <v>0.01307816791260813</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01903425244726303</v>
+        <v>0.019183970602056</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>387625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>351725</v>
+        <v>353624</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>430650</v>
+        <v>431166</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1156258536603968</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1049171982187726</v>
+        <v>0.1054836099464779</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1284598878451942</v>
+        <v>0.1286138712025504</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>255</v>
@@ -5263,19 +5263,19 @@
         <v>263254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>232470</v>
+        <v>231746</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>296050</v>
+        <v>295862</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07486828126402682</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06611329117656732</v>
+        <v>0.06590756209947585</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08419529620340301</v>
+        <v>0.08414174342653888</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>613</v>
@@ -5284,19 +5284,19 @@
         <v>650879</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602582</v>
+        <v>601593</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>699014</v>
+        <v>699816</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09476101395812661</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0877294816920153</v>
+        <v>0.08758539170976316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1017689775332892</v>
+        <v>0.1018857225458619</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>1643264</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1587939</v>
+        <v>1582920</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1703874</v>
+        <v>1705379</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4901743158217722</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4736710473702821</v>
+        <v>0.4721739572012162</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5082537482986484</v>
+        <v>0.508702660445468</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2042</v>
@@ -5334,19 +5334,19 @@
         <v>2134157</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2076291</v>
+        <v>2072501</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2197019</v>
+        <v>2192141</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6069444004584974</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5904875233603916</v>
+        <v>0.5894097207000359</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6248220609223201</v>
+        <v>0.6234347213494398</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3606</v>
@@ -5355,19 +5355,19 @@
         <v>3777422</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3692653</v>
+        <v>3682375</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3859288</v>
+        <v>3858940</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5499518971328414</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5376105461981151</v>
+        <v>0.536114200061759</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.561870733384454</v>
+        <v>0.5618200525737757</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>1230990</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1175749</v>
+        <v>1173424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1283269</v>
+        <v>1287059</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3671958196323027</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.350717778936564</v>
+        <v>0.3500241595925053</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3827901715700577</v>
+        <v>0.3839208672074937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>997</v>
@@ -5405,19 +5405,19 @@
         <v>1101698</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1042389</v>
+        <v>1048882</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1164228</v>
+        <v>1156967</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3133176587339411</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2964505130001289</v>
+        <v>0.2982972778220486</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3311009519734109</v>
+        <v>0.3290361185648523</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2183</v>
@@ -5426,19 +5426,19 @@
         <v>2332688</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2253882</v>
+        <v>2255674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2415028</v>
+        <v>2420773</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3396142163988001</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3281409020754722</v>
+        <v>0.3284017874410387</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.351602006276846</v>
+        <v>0.3524385242399465</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>44049</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31709</v>
+        <v>30096</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62101</v>
+        <v>60593</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07661903416738713</v>
+        <v>0.07661903416738712</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05515538986459595</v>
+        <v>0.05234886643081094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1080178173482366</v>
+        <v>0.1053952140457757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5790,19 +5790,19 @@
         <v>5156</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2194</v>
+        <v>2104</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9662</v>
+        <v>9725</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006326644345212558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002691421698575668</v>
+        <v>0.002581639955973373</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01185430808403586</v>
+        <v>0.01193179427788823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -5811,19 +5811,19 @@
         <v>49205</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35719</v>
+        <v>36120</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67926</v>
+        <v>68993</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03540119837910433</v>
+        <v>0.03540119837910432</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02569799264978354</v>
+        <v>0.025987003829636</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04886954578880966</v>
+        <v>0.04963715954227039</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>113895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>96020</v>
+        <v>95884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134052</v>
+        <v>134971</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1981097241610228</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1670178109888886</v>
+        <v>0.1667816616968497</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2331700723631988</v>
+        <v>0.2347687775072244</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>131</v>
@@ -5861,19 +5861,19 @@
         <v>79431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66181</v>
+        <v>66481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92087</v>
+        <v>92979</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09745777723354389</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08120090219617405</v>
+        <v>0.08156904608029104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1129857884435925</v>
+        <v>0.1140812662545397</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>259</v>
@@ -5882,19 +5882,19 @@
         <v>193326</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>170963</v>
+        <v>170761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>219216</v>
+        <v>217461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1390897444630351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1230002878227637</v>
+        <v>0.1228554263586566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.157716069023399</v>
+        <v>0.1564539694173397</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>182127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>163494</v>
+        <v>162208</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>207263</v>
+        <v>204326</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3167926995758232</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2843810431920252</v>
+        <v>0.2821458549736727</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3605131936027958</v>
+        <v>0.3554047339514707</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>557</v>
@@ -5932,19 +5932,19 @@
         <v>329983</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>308549</v>
+        <v>307020</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>351306</v>
+        <v>353412</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4048737585050196</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3785742825621289</v>
+        <v>0.3766981666893787</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4310358232843642</v>
+        <v>0.4336191819427793</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>769</v>
@@ -5953,19 +5953,19 @@
         <v>512111</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>482331</v>
+        <v>480458</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>544246</v>
+        <v>544816</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3684414005544944</v>
+        <v>0.3684414005544943</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3470162677988237</v>
+        <v>0.3456686198386366</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3915613308688584</v>
+        <v>0.3919711274880969</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>234838</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>212005</v>
+        <v>214527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>257878</v>
+        <v>258501</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4084785420957667</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3687619236610009</v>
+        <v>0.3731490740024334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4485530537343345</v>
+        <v>0.4496373472804604</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>721</v>
@@ -6003,19 +6003,19 @@
         <v>400457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>378795</v>
+        <v>377015</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>421552</v>
+        <v>423481</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4913418199162239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.46476276105395</v>
+        <v>0.4625788631411392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5172233457461805</v>
+        <v>0.5195908209686598</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1030</v>
@@ -6024,19 +6024,19 @@
         <v>635296</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>603846</v>
+        <v>603389</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>666719</v>
+        <v>667209</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4570676566033662</v>
+        <v>0.4570676566033661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4344412555643953</v>
+        <v>0.4341121838394157</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4796755061165839</v>
+        <v>0.4800278314077352</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>196669</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>166203</v>
+        <v>169686</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>227297</v>
+        <v>226198</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08903715004077326</v>
+        <v>0.08903715004077328</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07524420235747385</v>
+        <v>0.07682096526520173</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1029029023037209</v>
+        <v>0.1024053356540032</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -6149,19 +6149,19 @@
         <v>61739</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48970</v>
+        <v>48046</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>75937</v>
+        <v>76141</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02858663542946949</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02267418442719269</v>
+        <v>0.0222466688467437</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03516067491474542</v>
+        <v>0.03525517148878012</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>251</v>
@@ -6170,19 +6170,19 @@
         <v>258408</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>230095</v>
+        <v>227906</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>294829</v>
+        <v>291316</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05915184907680954</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05267073409462406</v>
+        <v>0.05216973545041785</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06748897970426189</v>
+        <v>0.06668479183218877</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>527552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>482083</v>
+        <v>485160</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>576249</v>
+        <v>575667</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2388359188344407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2182511361860863</v>
+        <v>0.219644186417477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2608823363779054</v>
+        <v>0.2606191094974505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>590</v>
@@ -6220,19 +6220,19 @@
         <v>443657</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>408827</v>
+        <v>406115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>479279</v>
+        <v>480899</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2054241629661778</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1892969078811576</v>
+        <v>0.1880413197302852</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.221917982203567</v>
+        <v>0.2226680281026958</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1042</v>
@@ -6241,19 +6241,19 @@
         <v>971208</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>921376</v>
+        <v>915671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1033877</v>
+        <v>1029625</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2223179390243763</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2109108477107004</v>
+        <v>0.2096048520669661</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2366633914168896</v>
+        <v>0.2356900034519059</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>830797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>777454</v>
+        <v>776500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>879489</v>
+        <v>881148</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3761226719962816</v>
+        <v>0.3761226719962817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3519728616999744</v>
+        <v>0.3515411013816101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3981666619055573</v>
+        <v>0.3989180081085273</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1520</v>
@@ -6291,19 +6291,19 @@
         <v>1093960</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1048036</v>
+        <v>1051816</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1135580</v>
+        <v>1138986</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5065308024385345</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4852666298818886</v>
+        <v>0.487016884634906</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5258016479982629</v>
+        <v>0.5273789559861609</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2274</v>
@@ -6312,19 +6312,19 @@
         <v>1924757</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1857007</v>
+        <v>1859427</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1990198</v>
+        <v>1985443</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.440593359325812</v>
+        <v>0.4405933593258119</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4250848107583911</v>
+        <v>0.4256388087575084</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4555735065703405</v>
+        <v>0.4544850731439928</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>653828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>607191</v>
+        <v>606393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>703709</v>
+        <v>707913</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2960042591285043</v>
+        <v>0.2960042591285044</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2748906506891985</v>
+        <v>0.2745294769806725</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3185865598873517</v>
+        <v>0.3204897915717935</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>717</v>
@@ -6362,19 +6362,19 @@
         <v>560355</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>518632</v>
+        <v>525088</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>598675</v>
+        <v>602335</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2594583991658182</v>
+        <v>0.2594583991658181</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2401393179011483</v>
+        <v>0.2431287523234549</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2772012525945747</v>
+        <v>0.2788962800248492</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1321</v>
@@ -6383,19 +6383,19 @@
         <v>1214183</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1155524</v>
+        <v>1152798</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1284417</v>
+        <v>1273365</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2779368525730022</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2645092827094608</v>
+        <v>0.2638854746586681</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2940139892804077</v>
+        <v>0.2914841629590437</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>13860</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6786</v>
+        <v>7402</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22923</v>
+        <v>25053</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01963667959477983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0096146117126169</v>
+        <v>0.01048707708727649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03247627778361126</v>
+        <v>0.03549421193939371</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -6508,19 +6508,19 @@
         <v>11278</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6003</v>
+        <v>6280</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19526</v>
+        <v>19640</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01539967646273373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00819646460580525</v>
+        <v>0.008574345790167071</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02666127745291615</v>
+        <v>0.0268170671761792</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -6529,19 +6529,19 @@
         <v>25139</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15801</v>
+        <v>17173</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37439</v>
+        <v>37886</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01747912161850503</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01098690401444217</v>
+        <v>0.01194044861749256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02603195165773263</v>
+        <v>0.02634261821992138</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>88561</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>70460</v>
+        <v>71585</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>111001</v>
+        <v>110284</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1254681590695218</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09982304263796568</v>
+        <v>0.1014169174896507</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.157259652739813</v>
+        <v>0.1562437461886957</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>127</v>
@@ -6579,19 +6579,19 @@
         <v>95941</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>80338</v>
+        <v>78604</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>113843</v>
+        <v>113817</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1310016959681396</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.109697903974562</v>
+        <v>0.1073299160932123</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1554465669557727</v>
+        <v>0.1554111929888585</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>213</v>
@@ -6600,19 +6600,19 @@
         <v>184502</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>157626</v>
+        <v>160199</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>209706</v>
+        <v>213664</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1282859352902484</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1095985939792754</v>
+        <v>0.1113880263087816</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1458104948044203</v>
+        <v>0.1485625855087576</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>251980</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>224253</v>
+        <v>223444</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>279449</v>
+        <v>279311</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3569902221731953</v>
+        <v>0.3569902221731954</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3177070465625768</v>
+        <v>0.3165620966609234</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3959053662285654</v>
+        <v>0.39571108741835</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>445</v>
@@ -6650,19 +6650,19 @@
         <v>308067</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>284193</v>
+        <v>285527</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>331290</v>
+        <v>332654</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4206494147829146</v>
+        <v>0.4206494147829147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3880505063678081</v>
+        <v>0.3898722301955749</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4523585509300138</v>
+        <v>0.4542212782083078</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>693</v>
@@ -6671,19 +6671,19 @@
         <v>560048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>526498</v>
+        <v>530395</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>598042</v>
+        <v>601730</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3894066246392437</v>
+        <v>0.3894066246392436</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3660789374090992</v>
+        <v>0.3687885624058043</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4158247056046339</v>
+        <v>0.4183888338420861</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>351445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>323354</v>
+        <v>319734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>379524</v>
+        <v>380693</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4979049391625031</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4581083168314777</v>
+        <v>0.4529795784268097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5376861948913313</v>
+        <v>0.5393418539184459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>416</v>
@@ -6721,19 +6721,19 @@
         <v>317075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>293282</v>
+        <v>293820</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>342419</v>
+        <v>339661</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4329492127862121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4004607616224238</v>
+        <v>0.4011953559260519</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4675542664656668</v>
+        <v>0.4637884204508452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>748</v>
@@ -6742,19 +6742,19 @@
         <v>668520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>630579</v>
+        <v>631927</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>705152</v>
+        <v>704943</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.464828318452003</v>
+        <v>0.4648283184520029</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4384477140191269</v>
+        <v>0.4393850582487013</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4902987827852932</v>
+        <v>0.4901538703849218</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>254579</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>222189</v>
+        <v>223498</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>291121</v>
+        <v>287964</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07295354217006597</v>
+        <v>0.07295354217006599</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06367177250782634</v>
+        <v>0.06404692877577677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08342515947285863</v>
+        <v>0.08252067057195876</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>102</v>
@@ -6867,19 +6867,19 @@
         <v>78173</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63378</v>
+        <v>63273</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>95688</v>
+        <v>94852</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02108747737246193</v>
+        <v>0.02108747737246192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01709642088883096</v>
+        <v>0.01706817701714999</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0258121258795397</v>
+        <v>0.025586692967436</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>323</v>
@@ -6888,19 +6888,19 @@
         <v>332752</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>294503</v>
+        <v>296864</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>370631</v>
+        <v>370486</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04623676885182577</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04092186801158484</v>
+        <v>0.04124998233285682</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05150005527630017</v>
+        <v>0.05148002084974788</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>730008</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>680532</v>
+        <v>676722</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>786011</v>
+        <v>786013</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.209195244056978</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1950169893057736</v>
+        <v>0.1939252465480567</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2252436765671443</v>
+        <v>0.2252441284132109</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>848</v>
@@ -6938,19 +6938,19 @@
         <v>619028</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>580734</v>
+        <v>576101</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>660509</v>
+        <v>658315</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1669844831641875</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1566544351444822</v>
+        <v>0.1554048411036983</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1781739337288172</v>
+        <v>0.17758215183756</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1514</v>
@@ -6959,19 +6959,19 @@
         <v>1349037</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1285865</v>
+        <v>1286309</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1414469</v>
+        <v>1421468</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1874520226507683</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1786741810933812</v>
+        <v>0.1787359061469607</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1965440765306221</v>
+        <v>0.1975164986787055</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>1264905</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1202169</v>
+        <v>1195557</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1331263</v>
+        <v>1328349</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3624781403231134</v>
+        <v>0.3624781403231135</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3445001236941154</v>
+        <v>0.3426054648822516</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3814939739607787</v>
+        <v>0.3806591667336223</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2522</v>
@@ -7009,19 +7009,19 @@
         <v>1732011</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1680826</v>
+        <v>1677420</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1786694</v>
+        <v>1785904</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4672144847521134</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4534072956223746</v>
+        <v>0.4524885013760636</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4819654692844028</v>
+        <v>0.4817521994034936</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3736</v>
@@ -7030,19 +7030,19 @@
         <v>2996916</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2918605</v>
+        <v>2914596</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3073189</v>
+        <v>3080872</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4164289689277155</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4055474663450471</v>
+        <v>0.4049904949197493</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4270272951858043</v>
+        <v>0.4280948656192236</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>1240111</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1176894</v>
+        <v>1177298</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1298887</v>
+        <v>1303993</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3553730734498425</v>
+        <v>0.3553730734498426</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3372573296937155</v>
+        <v>0.3373729338210539</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3722161335985837</v>
+        <v>0.3736794038660938</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1854</v>
@@ -7080,19 +7080,19 @@
         <v>1277888</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1224391</v>
+        <v>1228217</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1330074</v>
+        <v>1335246</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3447135547112372</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3302827626022817</v>
+        <v>0.3313147265741095</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3587909203307052</v>
+        <v>0.3601862636341497</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3099</v>
@@ -7101,19 +7101,19 @@
         <v>2517999</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2434963</v>
+        <v>2430686</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2596807</v>
+        <v>2595054</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3498822395696903</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3383442213972522</v>
+        <v>0.3377499995481182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3608328417357373</v>
+        <v>0.3605892859003176</v>
       </c>
     </row>
     <row r="23">
